--- a/excel sheets/obsrich_values.xlsx
+++ b/excel sheets/obsrich_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Observed</t>
   </si>
@@ -603,9 +603,6 @@
   </si>
   <si>
     <t>X1C</t>
-  </si>
-  <si>
-    <t>X7A</t>
   </si>
 </sst>
 </file>
@@ -2230,14 +2227,6 @@
         <v>602.0</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>197</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
